--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -31,13 +31,13 @@
     <t>Purgatory</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
-  </si>
-  <si>
     <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Coaster</t>
+  </si>
+  <si>
+    <t>Purgatory Passes</t>
   </si>
   <si>
     <t>Purgatory Comp Tickets</t>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="C3" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -468,10 +468,10 @@
         <v>45633</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45633</v>
+        <v>45628</v>
       </c>
       <c r="C5" s="2">
-        <v>295</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C6" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C7" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C8" s="2">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45632</v>
+        <v>45630</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C11" s="2">
-        <v>580</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C12" s="2">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="C13" s="2">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -608,10 +608,10 @@
         <v>45633</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -661,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C18" s="2">
-        <v>160</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>7</v>
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C19" s="2">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C20" s="2">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C22" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C23" s="2">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C24" s="2">
-        <v>114</v>
+        <v>-3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C25" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="C27" s="2">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C28" s="2">
-        <v>1260</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="C30" s="2">
-        <v>85</v>
+        <v>1558</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="C31" s="2">
-        <v>8</v>
+        <v>160</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C33" s="2">
-        <v>89</v>
+        <v>337</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="C34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45629</v>
+        <v>45631</v>
       </c>
       <c r="C37" s="2">
-        <v>-3</v>
+        <v>417</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>7</v>
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C38" s="2">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45630</v>
+        <v>45632</v>
       </c>
       <c r="C39" s="2">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C41" s="2">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
@@ -997,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C42" s="2">
-        <v>149</v>
+        <v>1260</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="C43" s="2">
-        <v>1558</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C44" s="2">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C45" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="C46" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45629</v>
+        <v>45634</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C48" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C49" s="2">
-        <v>392</v>
+        <v>160</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45631</v>
+        <v>45629</v>
       </c>
       <c r="C52" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>368</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C54" s="2">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C55" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C56" s="2">
-        <v>168</v>
+        <v>580</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="C3" s="2">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -465,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C4" s="2">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,10 +482,10 @@
         <v>45633</v>
       </c>
       <c r="C5" s="2">
-        <v>295</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45629</v>
+        <v>45633</v>
       </c>
       <c r="C6" s="2">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C7" s="2">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C12" s="2">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -594,10 +594,10 @@
         <v>45628</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C14" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,10 +619,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C15" s="2">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -636,10 +636,10 @@
         <v>45631</v>
       </c>
       <c r="C16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45631</v>
+        <v>45632</v>
       </c>
       <c r="C17" s="2">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45634</v>
+        <v>45632</v>
       </c>
       <c r="C18" s="2">
-        <v>3</v>
+        <v>580</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -675,10 +675,10 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45634</v>
+        <v>45628</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -692,10 +692,10 @@
         <v>45628</v>
       </c>
       <c r="C20" s="2">
-        <v>337</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -717,10 +717,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="C22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -734,10 +734,10 @@
         <v>45631</v>
       </c>
       <c r="C23" s="2">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C24" s="2">
-        <v>417</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C25" s="2">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45633</v>
+        <v>45629</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45634</v>
+        <v>45629</v>
       </c>
       <c r="C28" s="2">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -815,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45634</v>
+        <v>45630</v>
       </c>
       <c r="C29" s="2">
-        <v>1260</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -829,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C30" s="2">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -843,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="C32" s="2">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="C33" s="2">
-        <v>392</v>
+        <v>1558</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -885,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45630</v>
+        <v>45634</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -913,10 +913,10 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45631</v>
+        <v>45628</v>
       </c>
       <c r="C36" s="2">
-        <v>86</v>
+        <v>337</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45633</v>
+        <v>45630</v>
       </c>
       <c r="C38" s="2">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C39" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +969,10 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="C40" s="2">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45628</v>
+        <v>45632</v>
       </c>
       <c r="C41" s="2">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C42" s="2">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1011,10 +1011,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45629</v>
+        <v>45633</v>
       </c>
       <c r="C43" s="2">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45632</v>
+        <v>45634</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>1260</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C46" s="2">
-        <v>580</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1067,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45628</v>
+        <v>45629</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C48" s="2">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45629</v>
+        <v>45630</v>
       </c>
       <c r="C49" s="2">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1112,7 +1112,7 @@
         <v>45630</v>
       </c>
       <c r="C50" s="2">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1123,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C51" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="C52" s="2">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,10 +1151,10 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C53" s="2">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1168,10 +1168,10 @@
         <v>45633</v>
       </c>
       <c r="C54" s="2">
-        <v>1558</v>
+        <v>62</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C55" s="2">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>45634</v>
       </c>
       <c r="C56" s="2">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -31,19 +31,19 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
     <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Purgatory Uplift Tickets</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45629</v>
+        <v>45635</v>
       </c>
       <c r="C3" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -465,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="C4" s="2">
-        <v>113</v>
+        <v>360</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45633</v>
+        <v>45635</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45634</v>
+        <v>45635</v>
       </c>
       <c r="C9" s="2">
-        <v>160</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,10 +549,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45630</v>
+        <v>45636</v>
       </c>
       <c r="C10" s="2">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="C11" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,10 +577,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="C12" s="2">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45628</v>
+        <v>45636</v>
       </c>
       <c r="C13" s="2">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="C14" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45629</v>
+        <v>45636</v>
       </c>
       <c r="C15" s="2">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45631</v>
+        <v>45636</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45632</v>
+        <v>45637</v>
       </c>
       <c r="C18" s="2">
-        <v>580</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45628</v>
+        <v>45637</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45628</v>
+        <v>45637</v>
       </c>
       <c r="C20" s="2">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45628</v>
+        <v>45637</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45631</v>
+        <v>45637</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45631</v>
+        <v>45637</v>
       </c>
       <c r="C23" s="2">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
@@ -745,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45628</v>
+        <v>45638</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45629</v>
+        <v>45638</v>
       </c>
       <c r="C27" s="2">
-        <v>-3</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45629</v>
+        <v>45638</v>
       </c>
       <c r="C28" s="2">
-        <v>21</v>
+        <v>457</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45630</v>
+        <v>45638</v>
       </c>
       <c r="C29" s="2">
-        <v>117</v>
+        <v>193</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45631</v>
+        <v>45638</v>
       </c>
       <c r="C30" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45632</v>
+        <v>45638</v>
       </c>
       <c r="C31" s="2">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45633</v>
+        <v>45638</v>
       </c>
       <c r="C32" s="2">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45633</v>
+        <v>45638</v>
       </c>
       <c r="C33" s="2">
-        <v>1558</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45634</v>
+        <v>45638</v>
       </c>
       <c r="C34" s="2">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45634</v>
+        <v>45639</v>
       </c>
       <c r="C35" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45628</v>
+        <v>45639</v>
       </c>
       <c r="C36" s="2">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45629</v>
+        <v>45639</v>
       </c>
       <c r="C37" s="2">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45630</v>
+        <v>45639</v>
       </c>
       <c r="C38" s="2">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="C39" s="2">
-        <v>16</v>
+        <v>573</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="C40" s="2">
-        <v>417</v>
+        <v>265</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C41" s="2">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45632</v>
+        <v>45639</v>
       </c>
       <c r="C42" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45633</v>
+        <v>45639</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45634</v>
+        <v>45640</v>
       </c>
       <c r="C44" s="2">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45634</v>
+        <v>45640</v>
       </c>
       <c r="C45" s="2">
-        <v>1260</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45628</v>
+        <v>45640</v>
       </c>
       <c r="C46" s="2">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45629</v>
+        <v>45640</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45630</v>
+        <v>45640</v>
       </c>
       <c r="C48" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45630</v>
+        <v>45640</v>
       </c>
       <c r="C49" s="2">
-        <v>392</v>
+        <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45630</v>
+        <v>45640</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45630</v>
+        <v>45640</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>1413</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45631</v>
+        <v>45640</v>
       </c>
       <c r="C52" s="2">
-        <v>86</v>
+        <v>570</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45632</v>
+        <v>45640</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="C54" s="2">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45633</v>
+        <v>45640</v>
       </c>
       <c r="C55" s="2">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1193,195 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45634</v>
+        <v>45641</v>
       </c>
       <c r="C56" s="2">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C60" s="2">
+        <v>99</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C61" s="2">
+        <v>100</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C62" s="2">
+        <v>137</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C64" s="2">
+        <v>403</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C66" s="2">
+        <v>6</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C67" s="2">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C69" s="2">
+        <v>88</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Uplift Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -440,7 +437,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -454,10 +451,10 @@
         <v>45635</v>
       </c>
       <c r="C3" s="2">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -468,7 +465,7 @@
         <v>45635</v>
       </c>
       <c r="C4" s="2">
-        <v>360</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -482,10 +479,10 @@
         <v>45635</v>
       </c>
       <c r="C5" s="2">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,10 +493,10 @@
         <v>45635</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>504</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -510,10 +507,10 @@
         <v>45635</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>735</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -524,10 +521,10 @@
         <v>45635</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,13 +532,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C9" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -555,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -566,7 +563,7 @@
         <v>45636</v>
       </c>
       <c r="C11" s="2">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -580,7 +577,7 @@
         <v>45636</v>
       </c>
       <c r="C12" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -594,10 +591,10 @@
         <v>45636</v>
       </c>
       <c r="C13" s="2">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -608,10 +605,10 @@
         <v>45636</v>
       </c>
       <c r="C14" s="2">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -622,10 +619,10 @@
         <v>45636</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>642</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -636,10 +633,10 @@
         <v>45636</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -653,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -664,7 +661,7 @@
         <v>45637</v>
       </c>
       <c r="C18" s="2">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -678,7 +675,7 @@
         <v>45637</v>
       </c>
       <c r="C19" s="2">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
@@ -692,10 +689,10 @@
         <v>45637</v>
       </c>
       <c r="C20" s="2">
-        <v>514</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -706,10 +703,10 @@
         <v>45637</v>
       </c>
       <c r="C21" s="2">
-        <v>151</v>
+        <v>535</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -720,10 +717,10 @@
         <v>45637</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>778</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -734,10 +731,10 @@
         <v>45637</v>
       </c>
       <c r="C23" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -751,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -762,7 +759,7 @@
         <v>45638</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
@@ -776,7 +773,7 @@
         <v>45638</v>
       </c>
       <c r="C26" s="2">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -790,10 +787,10 @@
         <v>45638</v>
       </c>
       <c r="C27" s="2">
-        <v>102</v>
+        <v>514</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -804,10 +801,10 @@
         <v>45638</v>
       </c>
       <c r="C28" s="2">
-        <v>457</v>
+        <v>714</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -818,10 +815,10 @@
         <v>45638</v>
       </c>
       <c r="C29" s="2">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C31" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,10 +854,10 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C32" s="2">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
@@ -871,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C34" s="2">
-        <v>16</v>
+        <v>816</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -902,10 +899,10 @@
         <v>45639</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>807</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -916,10 +913,10 @@
         <v>45639</v>
       </c>
       <c r="C36" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C37" s="2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -941,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C38" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C39" s="2">
-        <v>573</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C40" s="2">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,10 +1008,10 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C43" s="2">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
@@ -1028,10 +1025,10 @@
         <v>45640</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1042,10 +1039,10 @@
         <v>45640</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>829</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1056,10 +1053,10 @@
         <v>45640</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>1649</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1070,10 +1067,10 @@
         <v>45640</v>
       </c>
       <c r="C47" s="2">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C48" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1092,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C49" s="2">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C50" s="2">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C51" s="2">
-        <v>1413</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C52" s="2">
-        <v>570</v>
+        <v>155</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C53" s="2">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C54" s="2">
-        <v>5</v>
+        <v>802</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C55" s="2">
-        <v>48</v>
+        <v>1165</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,192 +1193,10 @@
         <v>45641</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C58" s="2">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C59" s="2">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C60" s="2">
-        <v>99</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C61" s="2">
-        <v>100</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C62" s="2">
-        <v>137</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1125</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C64" s="2">
-        <v>403</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C66" s="2">
-        <v>6</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C67" s="2">
-        <v>6</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C69" s="2">
-        <v>88</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Coaster</t>
+  </si>
+  <si>
+    <t>Purgatory Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,7 +440,7 @@
         <v>45635</v>
       </c>
       <c r="C2" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +451,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C4" s="2">
-        <v>65</v>
+        <v>514</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C5" s="2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C6" s="2">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
@@ -504,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C7" s="2">
-        <v>735</v>
+        <v>265</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>1413</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +538,10 @@
         <v>45636</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,7 +552,7 @@
         <v>45636</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -560,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -574,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C12" s="2">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,10 +591,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C13" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -602,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C14" s="2">
-        <v>338</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C15" s="2">
-        <v>642</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,10 +636,10 @@
         <v>45636</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -658,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -672,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C19" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C20" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C21" s="2">
-        <v>535</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -714,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="C22" s="2">
-        <v>778</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="C23" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -756,13 +759,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C25" s="2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,10 +773,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C26" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -784,10 +787,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C27" s="2">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -798,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C28" s="2">
-        <v>714</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45638</v>
+        <v>45637</v>
       </c>
       <c r="C29" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,10 +829,10 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,10 +843,10 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C31" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -854,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C32" s="2">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="C33" s="2">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -882,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="C34" s="2">
-        <v>816</v>
+        <v>360</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -896,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="C35" s="2">
-        <v>807</v>
+        <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C36" s="2">
-        <v>49</v>
+        <v>457</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,10 +941,10 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C38" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -969,7 +972,7 @@
         <v>45640</v>
       </c>
       <c r="C40" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -980,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -994,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>403</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C43" s="2">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C44" s="2">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1036,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C45" s="2">
-        <v>829</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C46" s="2">
-        <v>1649</v>
+        <v>98</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="C47" s="2">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C48" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1092,10 +1095,10 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C49" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1106,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C51" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1134,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C52" s="2">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,7 +1154,7 @@
         <v>45641</v>
       </c>
       <c r="C53" s="2">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1165,10 +1168,10 @@
         <v>45641</v>
       </c>
       <c r="C54" s="2">
-        <v>802</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,7 +1182,7 @@
         <v>45641</v>
       </c>
       <c r="C55" s="2">
-        <v>1165</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>7</v>
@@ -1190,13 +1193,195 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C56" s="2">
+        <v>397</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C57" s="2">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C60" s="2">
+        <v>573</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C61" s="2">
+        <v>570</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C62" s="2">
+        <v>48</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
         <v>45641</v>
       </c>
-      <c r="C56" s="2">
-        <v>98</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>8</v>
+      <c r="C63" s="2">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C64" s="2">
+        <v>135</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C67" s="2">
+        <v>32</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45641</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1125</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -31,16 +31,16 @@
     <t>Purgatory</t>
   </si>
   <si>
+    <t>Purgatory Comp Tickets</t>
+  </si>
+  <si>
     <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
+    <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Coaster</t>
+    <t>Purgatory Tickets</t>
   </si>
   <si>
     <t>Purgatory Uplift Tickets</t>
@@ -437,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -454,7 +454,7 @@
         <v>45636</v>
       </c>
       <c r="C3" s="2">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -468,10 +468,10 @@
         <v>45637</v>
       </c>
       <c r="C4" s="2">
-        <v>514</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -507,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C7" s="2">
-        <v>265</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C8" s="2">
-        <v>1413</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C9" s="2">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -549,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C10" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +563,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C11" s="2">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>1125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C14" s="2">
-        <v>88</v>
+        <v>397</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -650,10 +650,10 @@
         <v>45638</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +661,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
+        <v>573</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
+        <v>570</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C20" s="2">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C21" s="2">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +745,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -773,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C26" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C27" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,10 +801,10 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C28" s="2">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -815,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="C29" s="2">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C30" s="2">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,13 +843,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C32" s="2">
-        <v>129</v>
+        <v>457</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C33" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C34" s="2">
-        <v>360</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C35" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C36" s="2">
-        <v>457</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +927,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C37" s="2">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -941,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C38" s="2">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +955,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C40" s="2">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +983,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,10 +997,10 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C42" s="2">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
@@ -1011,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,13 +1025,13 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C44" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1039,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C45" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C46" s="2">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1067,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="C48" s="2">
         <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C49" s="2">
         <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C50" s="2">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="C51" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C52" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1151,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C54" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1179,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C55" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,13 +1193,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C56" s="2">
-        <v>397</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1207,13 +1207,13 @@
         <v>4</v>
       </c>
       <c r="B57" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C57" s="2">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1221,13 +1221,13 @@
         <v>4</v>
       </c>
       <c r="B58" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C58" s="2">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1235,13 +1235,13 @@
         <v>4</v>
       </c>
       <c r="B59" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C59" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1249,13 +1249,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="2">
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="C60" s="2">
-        <v>573</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1263,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="B61" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C61" s="2">
-        <v>570</v>
+        <v>99</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1277,10 +1277,10 @@
         <v>4</v>
       </c>
       <c r="B62" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C62" s="2">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -1291,13 +1291,13 @@
         <v>4</v>
       </c>
       <c r="B63" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C63" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1305,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="B64" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C64" s="2">
         <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1319,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="B65" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C65" s="2">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1333,13 +1333,13 @@
         <v>4</v>
       </c>
       <c r="B66" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1347,13 +1347,13 @@
         <v>4</v>
       </c>
       <c r="B67" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C67" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1361,13 +1361,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="2">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>265</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1375,13 +1375,13 @@
         <v>4</v>
       </c>
       <c r="B69" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C69" s="2">
-        <v>1125</v>
+        <v>1413</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -440,7 +437,7 @@
         <v>45636</v>
       </c>
       <c r="C2" s="2">
-        <v>51</v>
+        <v>642</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -465,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C4" s="2">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,10 +479,10 @@
         <v>45639</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>807</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,7 +493,7 @@
         <v>45640</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -507,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C7" s="2">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -524,10 +521,10 @@
         <v>45635</v>
       </c>
       <c r="C8" s="2">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -535,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -552,10 +549,10 @@
         <v>45639</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C11" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>1165</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C13" s="2">
-        <v>1125</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -608,10 +605,10 @@
         <v>45636</v>
       </c>
       <c r="C14" s="2">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C15" s="2">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C16" s="2">
-        <v>4</v>
+        <v>816</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C18" s="2">
-        <v>573</v>
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C19" s="2">
-        <v>570</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C20" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C21" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C22" s="2">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C24" s="2">
-        <v>3</v>
+        <v>535</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C25" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -773,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C26" s="2">
-        <v>102</v>
+        <v>829</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C27" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C28" s="2">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C29" s="2">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C30" s="2">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C31" s="2">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -860,10 +857,10 @@
         <v>45638</v>
       </c>
       <c r="C32" s="2">
-        <v>457</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C33" s="2">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C34" s="2">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C36" s="2">
-        <v>7</v>
+        <v>735</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -941,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C38" s="2">
-        <v>403</v>
+        <v>714</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -972,10 +969,10 @@
         <v>45641</v>
       </c>
       <c r="C40" s="2">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -986,10 +983,10 @@
         <v>45635</v>
       </c>
       <c r="C41" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1000,10 +997,10 @@
         <v>45636</v>
       </c>
       <c r="C42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45638</v>
+        <v>45637</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1028,10 +1025,10 @@
         <v>45638</v>
       </c>
       <c r="C44" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C45" s="2">
-        <v>1</v>
+        <v>514</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,13 +1050,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C46" s="2">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1070,10 +1067,10 @@
         <v>45640</v>
       </c>
       <c r="C47" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1084,10 +1081,10 @@
         <v>45641</v>
       </c>
       <c r="C48" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1098,10 +1095,10 @@
         <v>45641</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>802</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C50" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1134,10 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C52" s="2">
-        <v>25</v>
+        <v>778</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C53" s="2">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C54" s="2">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C55" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,195 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C56" s="2">
-        <v>2</v>
+        <v>1649</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C57" s="2">
-        <v>56</v>
-      </c>
-      <c r="D57" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45639</v>
-      </c>
-      <c r="C58" s="2">
-        <v>105</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C59" s="2">
-        <v>5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C61" s="2">
-        <v>99</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C62" s="2">
-        <v>100</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C64" s="2">
-        <v>135</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45637</v>
-      </c>
-      <c r="C65" s="2">
-        <v>514</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C66" s="2">
-        <v>2</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45639</v>
-      </c>
-      <c r="C68" s="2">
-        <v>265</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1413</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -440,7 +437,7 @@
         <v>45636</v>
       </c>
       <c r="C2" s="2">
-        <v>51</v>
+        <v>642</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -465,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C4" s="2">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -482,10 +479,10 @@
         <v>45639</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>807</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -496,7 +493,7 @@
         <v>45640</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -507,10 +504,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C7" s="2">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>7</v>
@@ -524,10 +521,10 @@
         <v>45636</v>
       </c>
       <c r="C8" s="2">
-        <v>397</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -538,10 +535,10 @@
         <v>45637</v>
       </c>
       <c r="C9" s="2">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -552,10 +549,10 @@
         <v>45637</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -577,13 +574,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C12" s="2">
-        <v>573</v>
+        <v>829</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -591,13 +588,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C13" s="2">
-        <v>570</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -605,10 +602,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C14" s="2">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -619,13 +616,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C15" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C16" s="2">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C17" s="2">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -661,13 +658,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -675,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C20" s="2">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,13 +700,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C21" s="2">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C22" s="2">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="C23" s="2">
+        <v>778</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -759,10 +756,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C25" s="2">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>7</v>
@@ -773,13 +770,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C26" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,13 +784,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45635</v>
+        <v>45640</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>1649</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C28" s="2">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,13 +826,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2">
-        <v>45638</v>
+        <v>45637</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,13 +840,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C32" s="2">
-        <v>63</v>
+        <v>514</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -874,10 +871,10 @@
         <v>45640</v>
       </c>
       <c r="C33" s="2">
-        <v>145</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C34" s="2">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -902,10 +899,10 @@
         <v>45641</v>
       </c>
       <c r="C35" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -916,10 +913,10 @@
         <v>45641</v>
       </c>
       <c r="C36" s="2">
-        <v>6</v>
+        <v>802</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -944,10 +941,10 @@
         <v>45635</v>
       </c>
       <c r="C38" s="2">
-        <v>2</v>
+        <v>735</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -958,10 +955,10 @@
         <v>45636</v>
       </c>
       <c r="C39" s="2">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C40" s="2">
-        <v>514</v>
+        <v>714</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -997,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="C43" s="2">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C44" s="2">
-        <v>1413</v>
+        <v>65</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C45" s="2">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1056,10 +1053,10 @@
         <v>45639</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1067,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C47" s="2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45639</v>
+        <v>45641</v>
       </c>
       <c r="C48" s="2">
-        <v>32</v>
+        <v>1165</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C50" s="2">
-        <v>1125</v>
+        <v>338</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C51" s="2">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C52" s="2">
-        <v>10</v>
+        <v>816</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C53" s="2">
-        <v>457</v>
+        <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C54" s="2">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,13 +1176,13 @@
         <v>4</v>
       </c>
       <c r="B55" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C55" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1193,195 +1190,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C57" s="2">
-        <v>7</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C59" s="2">
-        <v>403</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C61" s="2">
-        <v>88</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C62" s="2">
-        <v>84</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C64" s="2">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45637</v>
-      </c>
-      <c r="C65" s="2">
-        <v>36</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C66" s="2">
-        <v>102</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C67" s="2">
-        <v>5</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C68" s="2">
-        <v>129</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45641</v>
-      </c>
-      <c r="C69" s="2">
-        <v>137</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
   <si>
     <t>Resort</t>
   </si>
@@ -28,19 +28,22 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Snowbowl</t>
+    <t>Purgatory</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Purgatory Comp Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Purgatory Passes</t>
   </si>
   <si>
-    <t>Snowbowl Passes</t>
+    <t>Purgatory Coaster</t>
   </si>
   <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Purgatory Tickets</t>
+  </si>
+  <si>
+    <t>Purgatory Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -403,16 +406,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -434,10 +437,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C2" s="2">
-        <v>642</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,10 +451,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C3" s="2">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -462,13 +465,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C5" s="2">
-        <v>807</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,10 +493,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C6" s="2">
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -504,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -518,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,13 +549,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45637</v>
+        <v>45641</v>
       </c>
       <c r="C10" s="2">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -560,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -574,13 +577,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C12" s="2">
-        <v>829</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +591,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C13" s="2">
-        <v>2</v>
+        <v>397</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +605,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="C14" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,13 +619,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +647,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C17" s="2">
-        <v>64</v>
+        <v>573</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,10 +661,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C18" s="2">
-        <v>29</v>
+        <v>570</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -672,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,10 +692,10 @@
         <v>45641</v>
       </c>
       <c r="C20" s="2">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +703,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C21" s="2">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +717,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C23" s="2">
-        <v>778</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,10 +748,10 @@
         <v>45639</v>
       </c>
       <c r="C24" s="2">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -762,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C26" s="2">
-        <v>1</v>
+        <v>1125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +787,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45640</v>
+        <v>45635</v>
       </c>
       <c r="C27" s="2">
-        <v>1649</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -801,10 +804,10 @@
         <v>45635</v>
       </c>
       <c r="C28" s="2">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -815,10 +818,10 @@
         <v>45636</v>
       </c>
       <c r="C29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -829,10 +832,10 @@
         <v>45637</v>
       </c>
       <c r="C30" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -843,10 +846,10 @@
         <v>45638</v>
       </c>
       <c r="C31" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +857,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C32" s="2">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,10 +874,10 @@
         <v>45640</v>
       </c>
       <c r="C33" s="2">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C34" s="2">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -896,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C35" s="2">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -910,13 +913,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C36" s="2">
-        <v>802</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C37" s="2">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -938,13 +941,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C38" s="2">
-        <v>735</v>
+        <v>193</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,10 +955,10 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45636</v>
+        <v>45638</v>
       </c>
       <c r="C39" s="2">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
@@ -966,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C40" s="2">
-        <v>714</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C41" s="2">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
@@ -997,10 +1000,10 @@
         <v>45641</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1011,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="C43" s="2">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,10 +1025,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="C44" s="2">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1036,10 +1039,10 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="C45" s="2">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1050,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="C46" s="2">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1067,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45640</v>
+        <v>45636</v>
       </c>
       <c r="C47" s="2">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C48" s="2">
-        <v>1165</v>
+        <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,13 +1095,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C49" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,13 +1109,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C50" s="2">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1120,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C51" s="2">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,13 +1137,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C52" s="2">
-        <v>816</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1148,13 +1151,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1162,13 +1165,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C54" s="2">
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1179,10 +1182,10 @@
         <v>45641</v>
       </c>
       <c r="C55" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,6 +1199,188 @@
         <v>1</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45635</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C58" s="2">
+        <v>135</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C59" s="2">
+        <v>514</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45638</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C62" s="2">
+        <v>265</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1413</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C64" s="2">
+        <v>51</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45636</v>
+      </c>
+      <c r="C65" s="2">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45637</v>
+      </c>
+      <c r="C66" s="2">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45639</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45640</v>
+      </c>
+      <c r="C69" s="2">
+        <v>88</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/reports/Week Total (Prior Year)_Visits.xlsx
+++ b/reports/Week Total (Prior Year)_Visits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Resort</t>
   </si>
@@ -28,22 +28,19 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Purgatory</t>
+    <t>Snowbowl</t>
   </si>
   <si>
-    <t>Purgatory Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Purgatory Passes</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
-    <t>Purgatory Coaster</t>
+    <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Purgatory Tickets</t>
-  </si>
-  <si>
-    <t>Purgatory Uplift Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
 </sst>
 </file>
@@ -406,16 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -437,10 +434,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C2" s="2">
-        <v>25</v>
+        <v>642</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +448,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C3" s="2">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -465,13 +462,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>45637</v>
+        <v>45639</v>
       </c>
       <c r="C5" s="2">
-        <v>2</v>
+        <v>807</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -493,10 +490,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>6</v>
@@ -507,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C7" s="2">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>45639</v>
+        <v>45635</v>
       </c>
       <c r="C8" s="2">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>6</v>
@@ -535,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C9" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -549,13 +546,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C11" s="2">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>7</v>
@@ -580,7 +577,7 @@
         <v>45641</v>
       </c>
       <c r="C12" s="2">
-        <v>100</v>
+        <v>1165</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -594,10 +591,10 @@
         <v>45636</v>
       </c>
       <c r="C13" s="2">
-        <v>397</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -608,10 +605,10 @@
         <v>45637</v>
       </c>
       <c r="C14" s="2">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -622,10 +619,10 @@
         <v>45637</v>
       </c>
       <c r="C15" s="2">
-        <v>4</v>
+        <v>778</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -633,13 +630,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C16" s="2">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -647,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C17" s="2">
-        <v>573</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -664,10 +661,10 @@
         <v>45640</v>
       </c>
       <c r="C18" s="2">
-        <v>570</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -678,10 +675,10 @@
         <v>45640</v>
       </c>
       <c r="C19" s="2">
-        <v>48</v>
+        <v>1649</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -689,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -703,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C21" s="2">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -717,13 +714,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -731,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>535</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -745,13 +742,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C24" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -762,10 +759,10 @@
         <v>45640</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>829</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -776,10 +773,10 @@
         <v>45641</v>
       </c>
       <c r="C26" s="2">
-        <v>1125</v>
+        <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -787,10 +784,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="2">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="C27" s="2">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
@@ -807,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -818,10 +815,10 @@
         <v>45636</v>
       </c>
       <c r="C29" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -832,10 +829,10 @@
         <v>45637</v>
       </c>
       <c r="C30" s="2">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -846,10 +843,10 @@
         <v>45638</v>
       </c>
       <c r="C31" s="2">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -857,13 +854,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C32" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C33" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -885,13 +882,13 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C34" s="2">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C35" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -913,13 +910,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="C36" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -927,13 +924,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C37" s="2">
-        <v>457</v>
+        <v>816</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -941,13 +938,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C38" s="2">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -955,13 +952,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C39" s="2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,13 +966,13 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C40" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -983,13 +980,13 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -997,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C42" s="2">
-        <v>1</v>
+        <v>504</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,13 +1008,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>45641</v>
+        <v>45635</v>
       </c>
       <c r="C43" s="2">
-        <v>403</v>
+        <v>735</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1025,10 +1022,10 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>45641</v>
+        <v>45636</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
@@ -1039,13 +1036,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>45641</v>
+        <v>45638</v>
       </c>
       <c r="C45" s="2">
-        <v>88</v>
+        <v>714</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1053,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>45635</v>
+        <v>45639</v>
       </c>
       <c r="C46" s="2">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
@@ -1067,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>45636</v>
+        <v>45641</v>
       </c>
       <c r="C47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C48" s="2">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C49" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1109,13 +1106,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C50" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,13 +1120,13 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C51" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,13 +1134,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C52" s="2">
-        <v>145</v>
+        <v>514</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,13 +1148,13 @@
         <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1165,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C54" s="2">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1182,10 +1179,10 @@
         <v>45641</v>
       </c>
       <c r="C55" s="2">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1196,191 +1193,9 @@
         <v>45641</v>
       </c>
       <c r="C56" s="2">
-        <v>1</v>
+        <v>802</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45635</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C58" s="2">
-        <v>135</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45637</v>
-      </c>
-      <c r="C59" s="2">
-        <v>514</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C60" s="2">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45638</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45639</v>
-      </c>
-      <c r="C62" s="2">
-        <v>265</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1413</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C64" s="2">
-        <v>51</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45636</v>
-      </c>
-      <c r="C65" s="2">
-        <v>6</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>45637</v>
-      </c>
-      <c r="C66" s="2">
-        <v>133</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>45639</v>
-      </c>
-      <c r="C67" s="2">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>45640</v>
-      </c>
-      <c r="C69" s="2">
-        <v>88</v>
-      </c>
-      <c r="D69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
